--- a/deneme.xlsx
+++ b/deneme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\husey\OneDrive\Masaüstü\Yeni klasör\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B683845-C5C9-41B5-94C9-D4A726A6490A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C9CFF3-7A77-4458-B930-E839CB6D4AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="645" windowWidth="21060" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="2790" windowWidth="21060" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -337,18 +337,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>123</v>
-      </c>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>3213</v>
       </c>
@@ -361,11 +358,17 @@
       <c r="E1">
         <v>1241</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>43643</v>
-      </c>
+      <c r="F1">
+        <v>234</v>
+      </c>
+      <c r="G1">
+        <v>234</v>
+      </c>
+      <c r="H1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>2354</v>
       </c>
@@ -378,11 +381,17 @@
       <c r="E2">
         <v>235</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>345345</v>
-      </c>
+      <c r="F2">
+        <v>324</v>
+      </c>
+      <c r="G2">
+        <v>453</v>
+      </c>
+      <c r="H2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>346</v>
       </c>
@@ -395,11 +404,17 @@
       <c r="E3">
         <v>324</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>756</v>
-      </c>
+      <c r="F3">
+        <v>234</v>
+      </c>
+      <c r="G3">
+        <v>345</v>
+      </c>
+      <c r="H3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>678978</v>
       </c>
@@ -412,11 +427,17 @@
       <c r="E4">
         <v>654</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>234</v>
-      </c>
+      <c r="F4">
+        <v>234</v>
+      </c>
+      <c r="G4">
+        <v>345</v>
+      </c>
+      <c r="H4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>435</v>
       </c>
@@ -429,11 +450,17 @@
       <c r="E5">
         <v>567</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>234</v>
-      </c>
+      <c r="F5">
+        <v>324</v>
+      </c>
+      <c r="G5">
+        <v>345</v>
+      </c>
+      <c r="H5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>565</v>
       </c>
@@ -445,6 +472,15 @@
       </c>
       <c r="E6">
         <v>389</v>
+      </c>
+      <c r="F6">
+        <v>234</v>
+      </c>
+      <c r="G6">
+        <v>345</v>
+      </c>
+      <c r="H6">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
